--- a/data/trans_orig/P04B3_1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>123434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105019</v>
+        <v>105958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143976</v>
+        <v>144648</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2245726981928227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.191069710518001</v>
+        <v>0.1927765571798384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2619466213660849</v>
+        <v>0.2631687450173685</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -762,19 +762,19 @@
         <v>92088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76249</v>
+        <v>75813</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109500</v>
+        <v>107265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.188835805553727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1563560611134868</v>
+        <v>0.1554619654925932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2245406836013805</v>
+        <v>0.2199572685177033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>255</v>
@@ -783,19 +783,19 @@
         <v>215523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191423</v>
+        <v>193925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>240016</v>
+        <v>244230</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2077718174796463</v>
+        <v>0.2077718174796464</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1845389634723507</v>
+        <v>0.1869505625528749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2313847982215411</v>
+        <v>0.2354467945350114</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>85102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68358</v>
+        <v>69200</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104973</v>
+        <v>104307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1548331862851656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1243690163752813</v>
+        <v>0.1259002197727245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1909856358936124</v>
+        <v>0.1897731360236204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -833,19 +833,19 @@
         <v>61373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50287</v>
+        <v>50232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74886</v>
+        <v>74995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1258514596680805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1031186224721935</v>
+        <v>0.1030048432203338</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1535598546906269</v>
+        <v>0.1537846651944847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -854,19 +854,19 @@
         <v>146476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125931</v>
+        <v>128162</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169905</v>
+        <v>171490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1412080919975091</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1214026631150741</v>
+        <v>0.123553370341329</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1637943415336536</v>
+        <v>0.1653225533158762</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>94183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76709</v>
+        <v>75996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114187</v>
+        <v>116104</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1713548176373465</v>
+        <v>0.1713548176373464</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1395619540327037</v>
+        <v>0.1382661459288992</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2077496373144811</v>
+        <v>0.2112375164438279</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -904,19 +904,19 @@
         <v>86002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71415</v>
+        <v>72413</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101864</v>
+        <v>101800</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1763556108863915</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1464433470559453</v>
+        <v>0.1484893772306624</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.208881574110391</v>
+        <v>0.2087502210372865</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>207</v>
@@ -925,19 +925,19 @@
         <v>180186</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>157184</v>
+        <v>156316</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206473</v>
+        <v>204596</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1737058259272096</v>
+        <v>0.1737058259272097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1515312862797286</v>
+        <v>0.1506947450453795</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1990479717765968</v>
+        <v>0.1972379247838425</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>246919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>224039</v>
+        <v>222676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273104</v>
+        <v>272851</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4492392978846651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4076114068737623</v>
+        <v>0.405132271983655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4968787078518958</v>
+        <v>0.4964187156611889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>357</v>
@@ -975,19 +975,19 @@
         <v>248200</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>228703</v>
+        <v>230718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>268015</v>
+        <v>270470</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5089571238918009</v>
+        <v>0.508957123891801</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4689767396517915</v>
+        <v>0.4731092652909016</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5495897417302991</v>
+        <v>0.5546243972007948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>603</v>
@@ -996,19 +996,19 @@
         <v>495120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>463645</v>
+        <v>460887</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>526872</v>
+        <v>524519</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4773142645956348</v>
+        <v>0.4773142645956349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4469712666713343</v>
+        <v>0.444312730893786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5079243615566665</v>
+        <v>0.5056559777919386</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>119550</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>100962</v>
+        <v>102240</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>139216</v>
+        <v>140233</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2474074229381475</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.208940115574913</v>
+        <v>0.2115847644065198</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2881056339511469</v>
+        <v>0.2902091849351212</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -1121,19 +1121,19 @@
         <v>101558</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>86908</v>
+        <v>86135</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>118487</v>
+        <v>117803</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2400089552797027</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2053875013999125</v>
+        <v>0.2035591045504357</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2800162976848455</v>
+        <v>0.2783988831315762</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>263</v>
@@ -1142,19 +1142,19 @@
         <v>221108</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>196518</v>
+        <v>197979</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243896</v>
+        <v>247547</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2439533583414684</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2168227516594648</v>
+        <v>0.2184345129432865</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2690953095120721</v>
+        <v>0.2731235279597959</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>63077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48967</v>
+        <v>49338</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79147</v>
+        <v>81553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1305374289563705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1013373244538711</v>
+        <v>0.1021041490030963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1637932784289368</v>
+        <v>0.1687730642695419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1192,19 +1192,19 @@
         <v>63821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51247</v>
+        <v>51975</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78701</v>
+        <v>77593</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.15082546546146</v>
+        <v>0.1508254654614599</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1211115240179178</v>
+        <v>0.1228308494127247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1859908250998337</v>
+        <v>0.1833738211064222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -1213,19 +1213,19 @@
         <v>126898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109372</v>
+        <v>107079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147776</v>
+        <v>148336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1400091455149172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1206727847535409</v>
+        <v>0.1181429604509297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1630441636582131</v>
+        <v>0.163662047524226</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>85301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69225</v>
+        <v>67072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103462</v>
+        <v>104984</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1765295373173058</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1432601958962882</v>
+        <v>0.138805201146293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2141124148199076</v>
+        <v>0.2172621391801221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -1263,19 +1263,19 @@
         <v>74302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59733</v>
+        <v>60070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89782</v>
+        <v>88594</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1755955935581062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1411640047720287</v>
+        <v>0.1419623006227783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2121796239000593</v>
+        <v>0.2093721618056437</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -1284,19 +1284,19 @@
         <v>159603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>138348</v>
+        <v>135742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185569</v>
+        <v>184465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1760935143159403</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1526419859610626</v>
+        <v>0.149767256910725</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2047420646401779</v>
+        <v>0.2035239760594807</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>215283</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>194810</v>
+        <v>191761</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238560</v>
+        <v>237195</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4455256107881762</v>
+        <v>0.4455256107881761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4031572769271701</v>
+        <v>0.3968459834765871</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4936963915839337</v>
+        <v>0.4908719646540919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>272</v>
@@ -1334,19 +1334,19 @@
         <v>183462</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>166410</v>
+        <v>166763</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>202243</v>
+        <v>200882</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.433569985700731</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3932717191891077</v>
+        <v>0.3941061619710103</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4779534445934939</v>
+        <v>0.4747373430706567</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>493</v>
@@ -1355,19 +1355,19 @@
         <v>398745</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>369767</v>
+        <v>372405</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>425524</v>
+        <v>430069</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4399439818276742</v>
+        <v>0.4399439818276741</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4079711938653911</v>
+        <v>0.4108823734356096</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4694889425199287</v>
+        <v>0.4745043553433879</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>118412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100203</v>
+        <v>99119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136643</v>
+        <v>138472</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.251078494650844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2124683709912379</v>
+        <v>0.2101706127861195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2897362107759682</v>
+        <v>0.2936144925066415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -1480,19 +1480,19 @@
         <v>49244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39188</v>
+        <v>38913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60796</v>
+        <v>59088</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2636324329497388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2097979969283807</v>
+        <v>0.2083248021169677</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3254751978488132</v>
+        <v>0.3163316991747021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -1501,19 +1501,19 @@
         <v>167656</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145746</v>
+        <v>147742</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190580</v>
+        <v>189694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2546400797438026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2213633784611637</v>
+        <v>0.2243947750030112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2894584679280278</v>
+        <v>0.2881125762611082</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>70606</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57030</v>
+        <v>56300</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87273</v>
+        <v>86028</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1497111702978209</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1209253820401125</v>
+        <v>0.1193769365331154</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1850520064010697</v>
+        <v>0.1824117026473552</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -1551,19 +1551,19 @@
         <v>25166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18053</v>
+        <v>18373</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33239</v>
+        <v>33401</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1347266214041729</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09664736646027691</v>
+        <v>0.09836447297197724</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.17795101565928</v>
+        <v>0.1788165946440886</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>116</v>
@@ -1572,19 +1572,19 @@
         <v>95771</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>80285</v>
+        <v>80574</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>113631</v>
+        <v>114807</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1454600146290835</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.121939286721906</v>
+        <v>0.1223787131324137</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1725858660311138</v>
+        <v>0.174371575269771</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>77736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61977</v>
+        <v>63022</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96245</v>
+        <v>95799</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1648310671707713</v>
+        <v>0.1648310671707712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1314153539133785</v>
+        <v>0.1336312466566336</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.204076149453527</v>
+        <v>0.2031312982087283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1622,19 +1622,19 @@
         <v>28519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21473</v>
+        <v>21199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37643</v>
+        <v>37336</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1526812653706687</v>
+        <v>0.1526812653706688</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1149557457481625</v>
+        <v>0.1134917991494185</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2015272101029559</v>
+        <v>0.1998818067366925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -1643,19 +1643,19 @@
         <v>106256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90646</v>
+        <v>87958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129044</v>
+        <v>126323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1613841366583394</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1376755762446729</v>
+        <v>0.1335927098862992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1959958806961035</v>
+        <v>0.1918637177242522</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>204858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183449</v>
+        <v>181928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227405</v>
+        <v>226212</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4343792678805639</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3889828953006576</v>
+        <v>0.38575746840876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4821876865548306</v>
+        <v>0.4796579303511105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -1693,19 +1693,19 @@
         <v>83861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72080</v>
+        <v>71636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95140</v>
+        <v>95805</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4489596802754197</v>
+        <v>0.4489596802754196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3858900824296478</v>
+        <v>0.3835093025100799</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5093413323024362</v>
+        <v>0.51290120441071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>339</v>
@@ -1714,19 +1714,19 @@
         <v>288720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>265620</v>
+        <v>264831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>314050</v>
+        <v>315369</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4385157689687745</v>
+        <v>0.4385157689687744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4034313887025479</v>
+        <v>0.4022333851814124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4769883232347024</v>
+        <v>0.478991035245285</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>287854</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>255413</v>
+        <v>257116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>319934</v>
+        <v>317564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2543231950391628</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2256611966903041</v>
+        <v>0.2271654481538248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2826665964501301</v>
+        <v>0.2805722315062274</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -1839,19 +1839,19 @@
         <v>157406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>138201</v>
+        <v>138194</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>177612</v>
+        <v>178954</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1829785787565111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1606532445139112</v>
+        <v>0.1606457698870666</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2064677574822817</v>
+        <v>0.2080275516513543</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>507</v>
@@ -1860,19 +1860,19 @@
         <v>445260</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>410288</v>
+        <v>410498</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>485914</v>
+        <v>482460</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2235144305856374</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2059591633559019</v>
+        <v>0.2060645206564084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2439223149326247</v>
+        <v>0.2421883434911075</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>129350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105530</v>
+        <v>107808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153623</v>
+        <v>154259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1142821971194534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0932373359444173</v>
+        <v>0.09525033463887592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1357277758817064</v>
+        <v>0.1362898473449644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -1910,19 +1910,19 @@
         <v>134984</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117901</v>
+        <v>117671</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155100</v>
+        <v>153746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1569141372044626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1370550995821499</v>
+        <v>0.1367876512618592</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1802981490115385</v>
+        <v>0.1787236170982694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>317</v>
@@ -1931,19 +1931,19 @@
         <v>264334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233910</v>
+        <v>238176</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>294386</v>
+        <v>296031</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1326919590427961</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.117419547210616</v>
+        <v>0.1195608574538736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1477776333163037</v>
+        <v>0.1486033831955026</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>208614</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>179325</v>
+        <v>181002</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242623</v>
+        <v>241976</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1843131247280781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1584366147016185</v>
+        <v>0.1599180969020954</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2143613980009779</v>
+        <v>0.2137892099229145</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>175</v>
@@ -1981,19 +1981,19 @@
         <v>136193</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>118552</v>
+        <v>116540</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>155155</v>
+        <v>154733</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1583193450206733</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1378119603181994</v>
+        <v>0.13547310124067</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1803615115034166</v>
+        <v>0.1798708053696863</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>355</v>
@@ -2002,19 +2002,19 @@
         <v>344807</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>311014</v>
+        <v>311251</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>382409</v>
+        <v>383293</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.17308822398589</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.156124712915972</v>
+        <v>0.1562439252358117</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1919641866127081</v>
+        <v>0.1924077862078689</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>506026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>470970</v>
+        <v>471566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>545524</v>
+        <v>541934</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4470814831133056</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4161087067431466</v>
+        <v>0.4166351421766472</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4819788645803118</v>
+        <v>0.4788066118705697</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>657</v>
@@ -2052,19 +2052,19 @@
         <v>431660</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>407473</v>
+        <v>405449</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>458477</v>
+        <v>457516</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5017879390183532</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.47367214472682</v>
+        <v>0.4713189948172704</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5329619160317064</v>
+        <v>0.5318445019530332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1168</v>
@@ -2073,19 +2073,19 @@
         <v>937686</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>893441</v>
+        <v>898762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>982180</v>
+        <v>982425</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4707053863856765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4484949766264388</v>
+        <v>0.4511663888584583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4930408584041739</v>
+        <v>0.4931640352993908</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>161439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>139084</v>
+        <v>138519</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>182555</v>
+        <v>185733</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2842410204784118</v>
+        <v>0.2842410204784117</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2448813984304918</v>
+        <v>0.2438860737862292</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3214205065712472</v>
+        <v>0.3270152512844525</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>345</v>
@@ -2198,19 +2198,19 @@
         <v>236020</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>215636</v>
+        <v>214183</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>260746</v>
+        <v>261449</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2843128432482984</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2597579394462723</v>
+        <v>0.2580078465093754</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3140982468897123</v>
+        <v>0.3149446155330251</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>511</v>
@@ -2219,19 +2219,19 @@
         <v>397459</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>365556</v>
+        <v>367972</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>433120</v>
+        <v>427412</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2842836661138923</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.26146508308238</v>
+        <v>0.2631929517473747</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3097901993028546</v>
+        <v>0.3057075215215172</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>88043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70924</v>
+        <v>72019</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107846</v>
+        <v>108576</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1550152996997393</v>
+        <v>0.1550152996997392</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1248748318494016</v>
+        <v>0.1268018594737428</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1898825545635251</v>
+        <v>0.1911676110740993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>219</v>
@@ -2269,19 +2269,19 @@
         <v>140676</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>123127</v>
+        <v>122804</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>160644</v>
+        <v>161128</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1694601870733494</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1483204606490003</v>
+        <v>0.1479313487959894</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.193513660010115</v>
+        <v>0.1940973963154169</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>309</v>
@@ -2290,19 +2290,19 @@
         <v>228719</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>202621</v>
+        <v>205731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>253628</v>
+        <v>254003</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1635921257183529</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1449253390649886</v>
+        <v>0.1471498295196616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.181407991745042</v>
+        <v>0.1816762559376645</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>83617</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67845</v>
+        <v>67924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102100</v>
+        <v>102167</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1472230478905513</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.119452761015535</v>
+        <v>0.1195926714593319</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1797654270552926</v>
+        <v>0.1798821386876592</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>207</v>
@@ -2340,19 +2340,19 @@
         <v>131970</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>117263</v>
+        <v>114546</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149922</v>
+        <v>148037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1589731844073755</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1412560673293596</v>
+        <v>0.1379830343241926</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1805980642500795</v>
+        <v>0.1783278913670164</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>286</v>
@@ -2361,19 +2361,19 @@
         <v>215588</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>194094</v>
+        <v>192867</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242071</v>
+        <v>240399</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1541998331013433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1388263815581121</v>
+        <v>0.1379485955156256</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1731421205611905</v>
+        <v>0.1719463877852889</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>234865</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>211210</v>
+        <v>208746</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>262674</v>
+        <v>261595</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4135206319312977</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3718726968431229</v>
+        <v>0.3675345260325266</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4624836875643453</v>
+        <v>0.4605846125821869</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>518</v>
@@ -2411,19 +2411,19 @@
         <v>321476</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>296515</v>
+        <v>301221</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>342986</v>
+        <v>347819</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3872537852709768</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3571862202782181</v>
+        <v>0.3628551342273732</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4131659690433012</v>
+        <v>0.4189870670404039</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>730</v>
@@ -2432,19 +2432,19 @@
         <v>556340</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>521062</v>
+        <v>521731</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>592196</v>
+        <v>592069</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3979243750664115</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3726913393082775</v>
+        <v>0.3731697903992512</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4235700486412391</v>
+        <v>0.4234796468561609</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>70186</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>48701</v>
+        <v>52425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>92168</v>
+        <v>95609</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2979242747928773</v>
+        <v>0.2979242747928774</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2067246539644902</v>
+        <v>0.222531406585884</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3912305593966006</v>
+        <v>0.4058344551134569</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>333</v>
@@ -2557,19 +2557,19 @@
         <v>255213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>229466</v>
+        <v>231962</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>279322</v>
+        <v>284773</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.302284167183937</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2717883464921526</v>
+        <v>0.2747444921312446</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3308403832064348</v>
+        <v>0.3372960452578311</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>368</v>
@@ -2578,19 +2578,19 @@
         <v>325399</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>292329</v>
+        <v>292491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>357837</v>
+        <v>361330</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3013330075090289</v>
+        <v>0.301333007509029</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2707090237052672</v>
+        <v>0.2708582470635941</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3313716010954378</v>
+        <v>0.3346060954971932</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>25773</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13645</v>
+        <v>13497</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42941</v>
+        <v>42438</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1093985176313185</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05791919137912942</v>
+        <v>0.05729229654224551</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.182272729860902</v>
+        <v>0.1801373757938269</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>123</v>
@@ -2628,19 +2628,19 @@
         <v>90832</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>74236</v>
+        <v>74862</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>110513</v>
+        <v>109335</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1075846144946038</v>
+        <v>0.1075846144946039</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08792818100392669</v>
+        <v>0.08866993066123163</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1308965295090839</v>
+        <v>0.1295007686159344</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>137</v>
@@ -2649,19 +2649,19 @@
         <v>116604</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>95914</v>
+        <v>96342</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>141412</v>
+        <v>139185</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1079803379123125</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08882045866873792</v>
+        <v>0.08921689385042166</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1309529676159855</v>
+        <v>0.1288906597715404</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>34399</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16918</v>
+        <v>21055</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54779</v>
+        <v>55849</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1460162512331042</v>
+        <v>0.1460162512331043</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07181227231233309</v>
+        <v>0.0893744872003565</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2325224275036389</v>
+        <v>0.237066987740703</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>179</v>
@@ -2699,19 +2699,19 @@
         <v>145906</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>125024</v>
+        <v>124471</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>169450</v>
+        <v>167698</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1728173554342637</v>
+        <v>0.1728173554342638</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1480837007645777</v>
+        <v>0.147428716829909</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.200703311742903</v>
+        <v>0.1986278425434476</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>192</v>
@@ -2720,19 +2720,19 @@
         <v>180306</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>154422</v>
+        <v>155377</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>210721</v>
+        <v>212433</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1669703924194372</v>
+        <v>0.1669703924194373</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1430007865064095</v>
+        <v>0.1438850563707631</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1951362544420182</v>
+        <v>0.1967212529556579</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>105227</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>80321</v>
+        <v>82159</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>132309</v>
+        <v>129225</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4466609563426999</v>
+        <v>0.4466609563427001</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3409408591212627</v>
+        <v>0.3487436548405274</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5616193420818616</v>
+        <v>0.5485276958874545</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>524</v>
@@ -2770,19 +2770,19 @@
         <v>352330</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>325480</v>
+        <v>326339</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>379250</v>
+        <v>380734</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4173138628871953</v>
+        <v>0.4173138628871954</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3855116677090462</v>
+        <v>0.3865285712657226</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4491991835647331</v>
+        <v>0.4509569994924421</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>573</v>
@@ -2791,19 +2791,19 @@
         <v>457557</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>424739</v>
+        <v>422017</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>498271</v>
+        <v>497179</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4237162621592211</v>
+        <v>0.4237162621592213</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3933260254332678</v>
+        <v>0.3908051667652917</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4614194421996372</v>
+        <v>0.4604078952029091</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>880875</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>826946</v>
+        <v>819029</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>936007</v>
+        <v>930687</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2560790642750359</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2404013728916832</v>
+        <v>0.2380999526110743</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2721065485850382</v>
+        <v>0.2705599597287273</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1220</v>
@@ -2916,19 +2916,19 @@
         <v>891529</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>848491</v>
+        <v>839781</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>940447</v>
+        <v>937445</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2454473338732551</v>
+        <v>0.2454473338732552</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2335985513988548</v>
+        <v>0.2312005443526887</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2589147920176865</v>
+        <v>0.2580885061305505</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2106</v>
@@ -2937,19 +2937,19 @@
         <v>1772404</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1699978</v>
+        <v>1707948</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1846450</v>
+        <v>1848509</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2506185715567243</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2403774784724162</v>
+        <v>0.2415044932363124</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2610887747609938</v>
+        <v>0.2613798763450222</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>461950</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>416863</v>
+        <v>415509</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>505395</v>
+        <v>506404</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1342935825378021</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1211861159994543</v>
+        <v>0.1207925041486323</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1469232566183287</v>
+        <v>0.1472166202390638</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>749</v>
@@ -2987,19 +2987,19 @@
         <v>516852</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>476628</v>
+        <v>482262</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>551838</v>
+        <v>557404</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1422946250622018</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1312207162484261</v>
+        <v>0.1327716711190826</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1519268291055361</v>
+        <v>0.1534590234030999</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1199</v>
@@ -3008,19 +3008,19 @@
         <v>978802</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>925241</v>
+        <v>921196</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1037745</v>
+        <v>1036198</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1384029450585135</v>
+        <v>0.1384029450585136</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1308294207886691</v>
+        <v>0.1302575214531431</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.146737584847372</v>
+        <v>0.1465188323510231</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>583851</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>533831</v>
+        <v>533607</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>633536</v>
+        <v>637566</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.169731268349737</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1551900736251585</v>
+        <v>0.1551250424955706</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1841751235755504</v>
+        <v>0.1853468099604962</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>812</v>
@@ -3058,19 +3058,19 @@
         <v>602893</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>565477</v>
+        <v>562285</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>643202</v>
+        <v>643990</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1659828854344892</v>
+        <v>0.1659828854344893</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1556816405528535</v>
+        <v>0.1548029819985172</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1770801151567219</v>
+        <v>0.1772971104724472</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1327</v>
@@ -3079,19 +3079,19 @@
         <v>1186744</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1119432</v>
+        <v>1123190</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1248374</v>
+        <v>1255409</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1678060861977586</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1582881747022517</v>
+        <v>0.158819427686241</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1765206104064861</v>
+        <v>0.1775152829749541</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>1513178</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1448580</v>
+        <v>1448020</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1575578</v>
+        <v>1577658</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4398960848374252</v>
+        <v>0.4398960848374251</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4211166818065615</v>
+        <v>0.4209538979579725</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4580363478835828</v>
+        <v>0.4586409765224098</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2459</v>
@@ -3129,19 +3129,19 @@
         <v>1620989</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1567266</v>
+        <v>1570088</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1673612</v>
+        <v>1674996</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4462751556300537</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4314847188911179</v>
+        <v>0.4322616629311192</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4607629169852405</v>
+        <v>0.4611437912863571</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3906</v>
@@ -3150,19 +3150,19 @@
         <v>3134167</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3051189</v>
+        <v>3048401</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3222501</v>
+        <v>3215459</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4431723971870035</v>
+        <v>0.4431723971870036</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.431439310611936</v>
+        <v>0.4310450439921339</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4556628607699786</v>
+        <v>0.4546670562192409</v>
       </c>
     </row>
     <row r="38">
